--- a/biology/Botanique/Kalmia/Kalmia.xlsx
+++ b/biology/Botanique/Kalmia/Kalmia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kalmia est un genre de plantes à fleurs de la famille des Ericaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Vascular Plants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Vascular Plants :
 Kalmia aggregata (Small) H.F.Copel., synonyme de Kalmia ericoides Griseb.
 Kalmia angustifolia L., nom correct
 Kalmia buxifolia (P.J.Bergius) Gift &amp; Kron, nom correct
@@ -564,22 +578,24 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres suivants sont inclus dans le genre Kalmia et sont donc synonymes :
-Ammyrsine Pursh[3]
-Azalea L, 1753 nom. rej.[1],[3]
-Chamaecistus Gray, 1821[1]
-Chamaecistus Oeder[3]
-Chamaedaphne Catesby ex Kuntze[3]
-Chamaeledon Link, 1821[1],[3]
-Dendrium Desv.[3]
-Fischera Sw.[3]
-Kalmiella Small, 1903[1],[3]
-Ledum subg. Leiophyllum Pers., 1805[1]
-Leiophyllum (Pers.) R.Hedw., 1806[1],[3]
-Loiseleuria Desv., 1813[1],[3]
-Tsutsusi Adans.[3]
+Ammyrsine Pursh
+Azalea L, 1753 nom. rej.,
+Chamaecistus Gray, 1821
+Chamaecistus Oeder
+Chamaedaphne Catesby ex Kuntze
+Chamaeledon Link, 1821,
+Dendrium Desv.
+Fischera Sw.
+Kalmiella Small, 1903,
+Ledum subg. Leiophyllum Pers., 1805
+Leiophyllum (Pers.) R.Hedw., 1806,
+Loiseleuria Desv., 1813,
+Tsutsusi Adans.
 </t>
         </is>
       </c>
